--- a/database/industries/felezat/faira/product/yearly.xlsx
+++ b/database/industries/felezat/faira/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6FFA1-D41D-46FA-93FA-FD1FFC0C224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +279,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -290,7 +291,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -337,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -372,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/felezat/faira/product/yearly.xlsx
+++ b/database/industries/felezat/faira/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD6FFA1-D41D-46FA-93FA-FD1FFC0C224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F6FACB-C49A-4534-B5D8-3FCD5B5E26CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -563,12 +563,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -578,7 +578,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -612,7 +612,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -646,7 +646,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -678,7 +678,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -702,7 +702,7 @@
         <v>18491</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -726,7 +726,7 @@
         <v>158086</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -774,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -842,7 +842,7 @@
         <v>176885</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -852,7 +852,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -862,7 +862,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -872,7 +872,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -904,7 +904,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>10</v>
       </c>
@@ -928,7 +928,7 @@
         <v>16971</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
@@ -952,7 +952,7 @@
         <v>146647</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>18</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>165563</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1126,7 +1126,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1178,7 +1178,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12348514</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>91171849</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1172543</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>20</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>104692906</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1402,7 +1402,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1412,7 +1412,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1422,7 +1422,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1454,7 +1454,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>10</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>727624418</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>12</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>621709609</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>602849871</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>14</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>22</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>16</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1656,7 +1656,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1666,7 +1666,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1676,7 +1676,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>28</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1708,7 +1708,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>-7684422</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>12</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>-61487801</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>13</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>-426465</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>14</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>-69598688</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1884,7 +1884,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1894,7 +1894,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1904,7 +1904,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>29</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1936,7 +1936,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>4664092</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>29684048</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>13</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>746078</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>14</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>18</v>
       </c>
